--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1168.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1168.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9105364097060656</v>
+        <v>1.166277408599854</v>
       </c>
       <c r="B1">
-        <v>1.228073821227306</v>
+        <v>2.432313203811646</v>
       </c>
       <c r="C1">
-        <v>2.067468895141703</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.370549917221069</v>
       </c>
       <c r="E1">
-        <v>2.089078137838844</v>
+        <v>1.235013604164124</v>
       </c>
     </row>
   </sheetData>
